--- a/autotest1st/jgg/res/page/HomePage.xlsx
+++ b/autotest1st/jgg/res/page/HomePage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53B447-8635-435E-903F-22E13398D0E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BA17D-C160-4C26-87DE-E3CFFB0E5989}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="120" windowWidth="18525" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>//span[@class='action___1lZ-_ ant-dropdown-trigger']/span[2]</t>
-  </si>
-  <si>
-    <t>//div[@class='subSystem___25ZKl']</t>
-  </si>
-  <si>
     <t>//div[@class='ant-tabs-tabpane ant-tabs-tabpane-active']/div[2]</t>
   </si>
   <si>
@@ -234,6 +228,14 @@
   </si>
   <si>
     <t>//div[@class='ant-layout-sider-children']//span[contains(text(),'系统配置')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='ant-layout-sider-children']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='action___2LMvA ant-dropdown-trigger']/span[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,271 +676,271 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
